--- a/biology/Zoologie/Belette_de_montagne/Belette_de_montagne.xlsx
+++ b/biology/Zoologie/Belette_de_montagne/Belette_de_montagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mustela altaica
 La Belette de montagne (Mustela altaica) est une espèce de carnivore de la famille des mustelidés.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur du corps avec la tête est de 22 à 29 cm pour les mâles, pour une queue de 11 à 15 cm. Les mâles peuvent peser de 217 à 350 grammes.
 Pour les femelles, le corps mesure 22 à 25 cm, avec une queue de 9 à 12 cm. Elles pèsent de 122 à 220 grammes.
@@ -546,7 +560,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la rencontre dans une grande partie de l'Asie : En Russie, au Kazakhstan, au Tibet et en général dans l'Himalaya, en Mongolie, au nord-est de la Chine, en Sibérie méridionale ainsi qu'en Corée.
 La belette de montagne vit principalement dans la montagne à une altitude de 3 500 m ou plus.
@@ -579,7 +595,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les belettes de montagne sont principalement nocturnes, mais chassent de temps en temps pendant le jour. Elles sont très rapides et agiles, et savent nager et grimper aussi bien que courir.
 Les campagnols et les pikas forment une partie importante du régime carnivore de la belette de montagne. Ces animaux peuvent également capturer des rats musqués, des écureuils terrestres, de jeunes lapins, de petits oiseaux, des lézards (en été), et en moindre quantité des grenouilles, des poissons, et des insectes. On a également observé le Mustela altaica mangeant des baies de genévrier dans certaines régions. Les observations en captivité suggèrent que la consommation quotidienne de viande est de 45-54 g (3-4 souris domestiques) pour un mâle adulte, bien qu'il puisse tuer davantage dans la nature. Quand les rongeurs abondent, on pense que ces animaux ne consomment seulement le sang et le cerveau.
@@ -611,7 +629,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système de reproduction de la belette de montagne n'a pas été décrit.
 Cependant, en se fondant sur le fait que les autres espèces du genre adoptent en général la polygynie (Et les mâles sont connus pour se disputer l'accès aux femelles lors de rudes combats), et compte tenu du conséquent dimorphisme sexuel que représente la grande différence de taille entre mâles et femelles, il serait cohérent de supposer que le même système d'accouplement est établi.
@@ -645,7 +665,9 @@
           <t>Vie sociale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie sociale de ces espèces n'est pas connue, mais la plupart des membres du genre sont relativement solitaires, excepté pour l'accouplement et pour leur première année.
 Confrontées au danger, les belettes de montagne poussent des cris perçants et très forts, et produisent une sécrétion très odorante à l'aide de leurs glandes anales.
@@ -677,7 +699,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La belette de montagne étant très agressive, elle est loin de représenter une proie de choix pour les prédateurs mammifères : elle n'a probablement pas de prédateurs terrestres. Les seuls prédateurs qu'elle puisse avoir sont probablement aviaires, comme des hiboux ou des faucons.
 À noter que certains la tuent pour sa fourrure.
@@ -709,7 +733,9 @@
           <t>Rôle de l'espèce</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>L'espèce peut être considérée comme gênante car on a reporté des attaques dans des élevages de volaille.
 Cependant, l'espèce est appréciée des milieux agricoles car elle tue certains rongeurs dévastateurs : Elle contribue probablement à réguler les populations de campagnols et de souris.</t>
@@ -740,7 +766,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Les différentes sous-espèces de la belette de montagne sont principalement différenciées par leur couleur, quelquefois plus claire ou plus foncée que la description générale fournie précédemment.
 Mustela altaica altaica Pallas, 1811
